--- a/Repository/BusinessObjects/DeliverySlot/requirement/DeliverySlot_OSMS_TO_EDIS_Canonical_Mapping_v1.2.2.xlsx
+++ b/Repository/BusinessObjects/DeliverySlot/requirement/DeliverySlot_OSMS_TO_EDIS_Canonical_Mapping_v1.2.2.xlsx
@@ -3814,7 +3814,7 @@
   <sheetPr/>
   <dimension ref="A3:B95"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
@@ -12386,8 +12386,8 @@
   <sheetPr/>
   <dimension ref="A1:Q686"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A121" sqref="$A121:$XFD121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>

--- a/Repository/BusinessObjects/DeliverySlot/requirement/DeliverySlot_OSMS_TO_EDIS_Canonical_Mapping_v1.2.2.xlsx
+++ b/Repository/BusinessObjects/DeliverySlot/requirement/DeliverySlot_OSMS_TO_EDIS_Canonical_Mapping_v1.2.2.xlsx
@@ -1411,14 +1411,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="[$-409]d/mmm;@"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="[$-409]d/mmm;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="51">
+  <fonts count="50">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1616,17 +1616,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1640,13 +1645,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1666,36 +1664,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1706,6 +1677,29 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1725,14 +1719,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -1742,7 +1728,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1755,23 +1757,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1834,7 +1827,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1846,61 +1965,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1912,79 +1977,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1996,25 +1989,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2150,17 +2125,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2176,17 +2140,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2206,160 +2175,166 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="38" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
@@ -2672,7 +2647,7 @@
     <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="27" fillId="5" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="27" fillId="5" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2685,13 +2660,13 @@
     <xf numFmtId="176" fontId="26" fillId="5" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="27" fillId="5" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="27" fillId="5" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="27" fillId="5" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="27" fillId="5" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -3814,8 +3789,8 @@
   <sheetPr/>
   <dimension ref="A3:B95"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="10.2" outlineLevelCol="1"/>
@@ -12386,14 +12361,14 @@
   <sheetPr/>
   <dimension ref="A1:Q686"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A121" sqref="$A121:$XFD121"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="5.71296296296296" style="5" customWidth="1"/>
-    <col min="2" max="2" width="106.287037037037" style="5" customWidth="1"/>
+    <col min="2" max="2" width="91.1111111111111" style="5" customWidth="1"/>
     <col min="3" max="3" width="43.287037037037" style="5" customWidth="1"/>
     <col min="4" max="4" width="20.8518518518519" style="5" customWidth="1"/>
     <col min="5" max="5" width="5.57407407407407" style="5" customWidth="1"/>
@@ -12701,7 +12676,7 @@
       </c>
       <c r="Q10" s="41"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="46.8" spans="1:17">
+    <row r="11" s="1" customFormat="1" ht="31.2" spans="1:17">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -13293,7 +13268,7 @@
       <c r="K30" s="36"/>
       <c r="Q30" s="41"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="15.6" spans="1:17">
+    <row r="31" s="1" customFormat="1" ht="31.2" spans="1:17">
       <c r="A31" s="1">
         <v>6</v>
       </c>
@@ -13403,7 +13378,7 @@
       <c r="K34" s="36"/>
       <c r="Q34" s="41"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="15.6" spans="1:17">
+    <row r="35" s="1" customFormat="1" ht="31.2" spans="1:17">
       <c r="A35" s="1">
         <v>6</v>
       </c>
